--- a/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết Kế Dữ Liệu/temp/Task.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết Kế Dữ Liệu/temp/Task.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>STT</t>
   </si>
@@ -46,10 +46,10 @@
     <t>Khoá chính</t>
   </si>
   <si>
-    <t>Là duy nhất, theo định dạng là : TK00001</t>
+    <t>Là duy nhất, theo định dạng là : TKxxxxx</t>
   </si>
   <si>
-    <t>TK00001</t>
+    <t>none</t>
   </si>
   <si>
     <t>Mã task</t>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Tham chiếu đến section_id trong table Section</t>
-  </si>
-  <si>
-    <t>SS00001</t>
   </si>
   <si>
     <t>Mã section</t>
@@ -94,9 +91,6 @@
     <t>Tham chiếu đến priority_id trong table Priority</t>
   </si>
   <si>
-    <t>PJ00001</t>
-  </si>
-  <si>
     <t>Mã độ ưu tiên</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
   </si>
   <si>
     <t>Tham chiếu đến tag_id trong table Tag</t>
-  </si>
-  <si>
-    <t>TG00001</t>
   </si>
   <si>
     <t>Mã tag</t>
@@ -159,9 +150,6 @@
     <t>Tham chiếu đến progress_id trong table Progress</t>
   </si>
   <si>
-    <t>PG00001</t>
-  </si>
-  <si>
     <t>Mã tiến độ</t>
   </si>
   <si>
@@ -169,9 +157,6 @@
   </si>
   <si>
     <t>Tham chiếu đến repeater_id trong table Repeater</t>
-  </si>
-  <si>
-    <t>RP00001</t>
   </si>
   <si>
     <t>Mã repeater</t>
@@ -200,9 +185,9 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -233,9 +218,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,7 +232,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -268,101 +269,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +291,82 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -392,19 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,61 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,13 +425,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,19 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,25 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,32 +586,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,40 +604,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -698,151 +638,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -858,7 +843,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1185,8 +1170,8 @@
   <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -1301,10 +1286,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1331,20 +1316,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1371,20 +1356,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1411,7 +1396,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -1420,13 +1405,13 @@
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1453,7 +1438,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -1462,13 +1447,13 @@
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1495,20 +1480,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5">
         <v>44176.9561921296</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1535,20 +1520,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5">
         <v>44177.9561921296</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1575,20 +1560,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5">
         <v>44178.9561921296</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1615,20 +1600,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5">
         <v>44179.9561921296</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1655,20 +1640,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1695,7 +1680,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
@@ -1704,13 +1689,13 @@
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1737,7 +1722,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1746,13 +1731,13 @@
         <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1779,20 +1764,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1819,20 +1804,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
